--- a/Team-Data/2007-08/2-11-2007-08.xlsx
+++ b/Team-Data/2007-08/2-11-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -777,7 +844,7 @@
         <v>29</v>
       </c>
       <c r="AO2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>10.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -965,13 +1032,13 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" t="n">
         <v>20</v>
@@ -989,7 +1056,7 @@
         <v>24</v>
       </c>
       <c r="AY3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>22</v>
@@ -998,7 +1065,7 @@
         <v>5</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -1030,55 +1097,55 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="n">
-        <v>0.346</v>
+        <v>0.353</v>
       </c>
       <c r="H4" t="n">
         <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J4" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L4" t="n">
         <v>6.2</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.358</v>
+        <v>0.357</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P4" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q4" t="n">
         <v>0.701</v>
       </c>
       <c r="R4" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T4" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U4" t="n">
         <v>21.6</v>
@@ -1087,28 +1154,28 @@
         <v>15.2</v>
       </c>
       <c r="W4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
         <v>5</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z4" t="n">
         <v>22.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.4</v>
+        <v>-5.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1117,7 +1184,7 @@
         <v>25</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
         <v>6</v>
@@ -1129,7 +1196,7 @@
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
@@ -1141,10 +1208,10 @@
         <v>14</v>
       </c>
       <c r="AO4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1156,19 +1223,19 @@
         <v>27</v>
       </c>
       <c r="AT4" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU4" t="n">
         <v>13</v>
       </c>
       <c r="AV4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>22</v>
@@ -1302,7 +1369,7 @@
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
         <v>25</v>
@@ -1341,13 +1408,13 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>13</v>
@@ -1356,10 +1423,10 @@
         <v>27</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB5" t="n">
         <v>23</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6" t="n">
         <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.569</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>48.7</v>
@@ -1412,67 +1479,67 @@
         <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M6" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.352</v>
       </c>
       <c r="O6" t="n">
-        <v>18.4</v>
+        <v>18.1</v>
       </c>
       <c r="P6" t="n">
-        <v>25.4</v>
+        <v>25.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R6" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S6" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U6" t="n">
         <v>19.3</v>
       </c>
       <c r="V6" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="X6" t="n">
         <v>4.8</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Z6" t="n">
         <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.09999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1496,7 +1563,7 @@
         <v>28</v>
       </c>
       <c r="AL6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
         <v>12</v>
@@ -1505,10 +1572,10 @@
         <v>15</v>
       </c>
       <c r="AO6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP6" t="n">
         <v>16</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>14</v>
       </c>
       <c r="AQ6" t="n">
         <v>25</v>
@@ -1517,16 +1584,16 @@
         <v>2</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>26</v>
       </c>
       <c r="AV6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
@@ -1535,16 +1602,16 @@
         <v>16</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ6" t="n">
         <v>21</v>
       </c>
       <c r="BA6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC6" t="n">
         <v>17</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -1576,46 +1643,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="n">
         <v>34</v>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>0.667</v>
+        <v>0.68</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.3</v>
+        <v>36.5</v>
       </c>
       <c r="J7" t="n">
         <v>78.3</v>
       </c>
       <c r="K7" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L7" t="n">
         <v>5.7</v>
       </c>
       <c r="M7" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O7" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="P7" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.819</v>
+        <v>0.82</v>
       </c>
       <c r="R7" t="n">
         <v>10.6</v>
@@ -1624,7 +1691,7 @@
         <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U7" t="n">
         <v>20.2</v>
@@ -1642,19 +1709,19 @@
         <v>4.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.40000000000001</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE7" t="n">
         <v>4</v>
@@ -1666,10 +1733,10 @@
         <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1681,10 +1748,10 @@
         <v>19</v>
       </c>
       <c r="AM7" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN7" t="n">
         <v>19</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>20</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1705,7 +1772,7 @@
         <v>10</v>
       </c>
       <c r="AU7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
@@ -1714,19 +1781,19 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ7" t="n">
         <v>23</v>
       </c>
       <c r="BA7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>10</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1902,7 +1969,7 @@
         <v>21</v>
       </c>
       <c r="AZ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO9" t="n">
         <v>14</v>
@@ -2078,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" t="n">
         <v>20</v>
       </c>
       <c r="G10" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J10" t="n">
-        <v>88.40000000000001</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="K10" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L10" t="n">
         <v>9.699999999999999</v>
@@ -2155,10 +2222,10 @@
         <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P10" t="n">
-        <v>25.9</v>
+        <v>25.8</v>
       </c>
       <c r="Q10" t="n">
         <v>0.75</v>
@@ -2167,10 +2234,10 @@
         <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U10" t="n">
         <v>23</v>
@@ -2182,7 +2249,7 @@
         <v>9.1</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5</v>
@@ -2191,28 +2258,28 @@
         <v>23.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB10" t="n">
-        <v>109.7</v>
+        <v>109.5</v>
       </c>
       <c r="AC10" t="n">
         <v>2.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
         <v>10</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2236,7 +2303,7 @@
         <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2248,7 +2315,7 @@
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2260,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ10" t="n">
         <v>27</v>
@@ -2272,7 +2339,7 @@
         <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -2304,73 +2371,73 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.3</v>
+        <v>36.4</v>
       </c>
       <c r="J11" t="n">
-        <v>81.09999999999999</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L11" t="n">
         <v>6.7</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.337</v>
+        <v>0.335</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="P11" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.73</v>
+        <v>0.727</v>
       </c>
       <c r="R11" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S11" t="n">
         <v>32</v>
       </c>
       <c r="T11" t="n">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="U11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
         <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y11" t="n">
         <v>4.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA11" t="n">
         <v>20.2</v>
@@ -2379,67 +2446,67 @@
         <v>95.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM11" t="n">
         <v>9</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AP11" t="n">
         <v>24</v>
       </c>
       <c r="AQ11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS11" t="n">
         <v>7</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV11" t="n">
         <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX11" t="n">
         <v>4</v>
@@ -2448,13 +2515,13 @@
         <v>9</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC11" t="n">
         <v>12</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -2564,19 +2631,19 @@
         <v>-2.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>20</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13" t="n">
         <v>32</v>
       </c>
       <c r="G13" t="n">
-        <v>0.347</v>
+        <v>0.333</v>
       </c>
       <c r="H13" t="n">
         <v>48.2</v>
@@ -2686,67 +2753,67 @@
         <v>34.6</v>
       </c>
       <c r="J13" t="n">
-        <v>79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L13" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.339</v>
+        <v>0.342</v>
       </c>
       <c r="O13" t="n">
         <v>20.8</v>
       </c>
       <c r="P13" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.79</v>
+        <v>0.788</v>
       </c>
       <c r="R13" t="n">
         <v>9.4</v>
       </c>
       <c r="S13" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T13" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U13" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V13" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
         <v>5</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.7</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
         <v>94.3</v>
       </c>
       <c r="AC13" t="n">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2755,28 +2822,28 @@
         <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
       </c>
       <c r="AL13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
         <v>27</v>
       </c>
       <c r="AN13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
@@ -2791,34 +2858,34 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW13" t="n">
         <v>21</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>19</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>20</v>
       </c>
       <c r="BA13" t="n">
         <v>11</v>
       </c>
       <c r="BB13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
         <v>22</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.667</v>
+        <v>0.66</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.9</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>81.59999999999999</v>
+        <v>81.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.477</v>
@@ -2880,25 +2947,25 @@
         <v>19.9</v>
       </c>
       <c r="N14" t="n">
-        <v>0.374</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="P14" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R14" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="T14" t="n">
-        <v>44.1</v>
+        <v>44.3</v>
       </c>
       <c r="U14" t="n">
         <v>23.6</v>
@@ -2907,7 +2974,7 @@
         <v>15.1</v>
       </c>
       <c r="W14" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
         <v>5</v>
@@ -2922,31 +2989,31 @@
         <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="n">
         <v>5.9</v>
       </c>
       <c r="AD14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE14" t="n">
         <v>6</v>
       </c>
-      <c r="AE14" t="n">
-        <v>4</v>
-      </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -2985,16 +3052,16 @@
         <v>18</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-5</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
         <v>10</v>
@@ -3173,7 +3240,7 @@
         <v>6</v>
       </c>
       <c r="AY15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3352,7 +3419,7 @@
         <v>19</v>
       </c>
       <c r="AX16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" t="n">
         <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" t="n">
-        <v>0.365</v>
+        <v>0.373</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
@@ -3423,10 +3490,10 @@
         <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.334</v>
+        <v>0.333</v>
       </c>
       <c r="O17" t="n">
         <v>16.5</v>
@@ -3435,25 +3502,25 @@
         <v>22.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R17" t="n">
         <v>11.9</v>
       </c>
       <c r="S17" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T17" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U17" t="n">
         <v>21.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W17" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
         <v>4.5</v>
@@ -3462,31 +3529,31 @@
         <v>5.3</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC17" t="n">
         <v>-6.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>23</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI17" t="n">
         <v>19</v>
@@ -3495,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL17" t="n">
         <v>22</v>
@@ -3504,7 +3571,7 @@
         <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO17" t="n">
         <v>26</v>
@@ -3522,7 +3589,7 @@
         <v>30</v>
       </c>
       <c r="AT17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AU17" t="n">
         <v>20</v>
@@ -3531,7 +3598,7 @@
         <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX17" t="n">
         <v>18</v>
@@ -3540,13 +3607,13 @@
         <v>22</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA17" t="n">
         <v>22</v>
       </c>
       <c r="BB17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC17" t="n">
         <v>27</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3698,10 +3765,10 @@
         <v>24</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT18" t="n">
         <v>14</v>
@@ -3713,7 +3780,7 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX18" t="n">
         <v>29</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3865,10 +3932,10 @@
         <v>21</v>
       </c>
       <c r="AM19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -4020,7 +4087,7 @@
         <v>5.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>4</v>
@@ -4071,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -4306,25 +4373,25 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" t="n">
         <v>32</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.604</v>
+        <v>0.615</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J22" t="n">
-        <v>78.2</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="K22" t="n">
         <v>0.469</v>
@@ -4336,7 +4403,7 @@
         <v>24.8</v>
       </c>
       <c r="N22" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O22" t="n">
         <v>21.3</v>
@@ -4345,22 +4412,22 @@
         <v>29.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.726</v>
+        <v>0.727</v>
       </c>
       <c r="R22" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S22" t="n">
         <v>32.6</v>
       </c>
       <c r="T22" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U22" t="n">
         <v>20.2</v>
       </c>
       <c r="V22" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W22" t="n">
         <v>6.3</v>
@@ -4378,22 +4445,22 @@
         <v>24</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.9</v>
+        <v>103.8</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AG22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH22" t="n">
         <v>14</v>
@@ -4417,37 +4484,37 @@
         <v>10</v>
       </c>
       <c r="AO22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP22" t="n">
         <v>2</v>
       </c>
       <c r="AQ22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
         <v>4</v>
       </c>
       <c r="AT22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV22" t="n">
         <v>13</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>12</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
         <v>16</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
         <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.423</v>
+        <v>0.412</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4518,22 +4585,22 @@
         <v>11.4</v>
       </c>
       <c r="N23" t="n">
-        <v>0.311</v>
+        <v>0.312</v>
       </c>
       <c r="O23" t="n">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="P23" t="n">
-        <v>25.7</v>
+        <v>25.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.705</v>
+        <v>0.707</v>
       </c>
       <c r="R23" t="n">
         <v>13</v>
       </c>
       <c r="S23" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T23" t="n">
         <v>42</v>
@@ -4557,19 +4624,19 @@
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
         <v>20</v>
@@ -4587,7 +4654,7 @@
         <v>17</v>
       </c>
       <c r="AK23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4599,10 +4666,10 @@
         <v>30</v>
       </c>
       <c r="AO23" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AP23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ23" t="n">
         <v>29</v>
@@ -4638,7 +4705,7 @@
         <v>18</v>
       </c>
       <c r="BB23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BC23" t="n">
         <v>16</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4760,7 +4827,7 @@
         <v>3</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
         <v>1</v>
@@ -4781,7 +4848,7 @@
         <v>2</v>
       </c>
       <c r="AO24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP24" t="n">
         <v>25</v>
@@ -4805,7 +4872,7 @@
         <v>8</v>
       </c>
       <c r="AW24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX24" t="n">
         <v>1</v>
@@ -4814,13 +4881,13 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.549</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>48.8</v>
@@ -4876,37 +4943,37 @@
         <v>0.454</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="N25" t="n">
         <v>0.38</v>
       </c>
       <c r="O25" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P25" t="n">
         <v>23.1</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.766</v>
+        <v>0.771</v>
       </c>
       <c r="R25" t="n">
         <v>10.4</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U25" t="n">
         <v>21.5</v>
       </c>
       <c r="V25" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="W25" t="n">
         <v>5.5</v>
@@ -4921,25 +4988,25 @@
         <v>19.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.8</v>
+        <v>96</v>
       </c>
       <c r="AC25" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
         <v>1</v>
@@ -4948,7 +5015,7 @@
         <v>22</v>
       </c>
       <c r="AJ25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
         <v>14</v>
@@ -4957,31 +5024,31 @@
         <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AN25" t="n">
         <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,19 +5057,19 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AY25" t="n">
         <v>4</v>
       </c>
       <c r="AZ25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>19</v>
       </c>
       <c r="BB25" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>14</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5124,7 +5191,7 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5139,7 +5206,7 @@
         <v>15</v>
       </c>
       <c r="AM26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AN26" t="n">
         <v>9</v>
@@ -5169,7 +5236,7 @@
         <v>30</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F27" t="n">
         <v>17</v>
       </c>
       <c r="G27" t="n">
-        <v>0.66</v>
+        <v>0.653</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
@@ -5237,7 +5304,7 @@
         <v>78.5</v>
       </c>
       <c r="K27" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L27" t="n">
         <v>7.8</v>
@@ -5249,22 +5316,22 @@
         <v>0.377</v>
       </c>
       <c r="O27" t="n">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="P27" t="n">
-        <v>21.8</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.751</v>
+        <v>0.752</v>
       </c>
       <c r="R27" t="n">
         <v>9.9</v>
       </c>
       <c r="S27" t="n">
-        <v>31.4</v>
+        <v>31.3</v>
       </c>
       <c r="T27" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U27" t="n">
         <v>21.5</v>
@@ -5279,10 +5346,10 @@
         <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="AA27" t="n">
         <v>19.8</v>
@@ -5294,19 +5361,19 @@
         <v>4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG27" t="n">
         <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>21</v>
@@ -5324,34 +5391,34 @@
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO27" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP27" t="n">
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>24</v>
       </c>
       <c r="AS27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AT27" t="n">
         <v>19</v>
       </c>
       <c r="AU27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV27" t="n">
         <v>5</v>
       </c>
       <c r="AW27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5500,13 +5567,13 @@
         <v>25</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AM28" t="n">
         <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO28" t="n">
         <v>24</v>
@@ -5515,7 +5582,7 @@
         <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>12</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
@@ -5545,10 +5612,10 @@
         <v>12</v>
       </c>
       <c r="BA28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC28" t="n">
         <v>28</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -5580,25 +5647,25 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" t="n">
         <v>27</v>
       </c>
       <c r="F29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G29" t="n">
-        <v>0.54</v>
+        <v>0.551</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>37.4</v>
+        <v>37.5</v>
       </c>
       <c r="J29" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.461</v>
@@ -5613,58 +5680,58 @@
         <v>0.421</v>
       </c>
       <c r="O29" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P29" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8120000000000001</v>
+        <v>0.8129999999999999</v>
       </c>
       <c r="R29" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.5</v>
+        <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="U29" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V29" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="W29" t="n">
         <v>7.1</v>
       </c>
       <c r="X29" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="AB29" t="n">
-        <v>98.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5676,7 +5743,7 @@
         <v>9</v>
       </c>
       <c r="AJ29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK29" t="n">
         <v>7</v>
@@ -5691,7 +5758,7 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
         <v>29</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
       </c>
       <c r="AT29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU29" t="n">
         <v>7</v>
@@ -5724,7 +5791,7 @@
         <v>7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="n">
         <v>29</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>5.8</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5879,7 +5946,7 @@
         <v>4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
         <v>17</v>
@@ -5900,7 +5967,7 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY30" t="n">
         <v>28</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
@@ -5944,25 +6011,25 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E31" t="n">
         <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.471</v>
+        <v>0.48</v>
       </c>
       <c r="H31" t="n">
         <v>48.5</v>
       </c>
       <c r="I31" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J31" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K31" t="n">
         <v>0.443</v>
@@ -5974,19 +6041,19 @@
         <v>19.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.342</v>
+        <v>0.339</v>
       </c>
       <c r="O31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="P31" t="n">
         <v>24.2</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.799</v>
+        <v>0.798</v>
       </c>
       <c r="R31" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="S31" t="n">
         <v>29.9</v>
@@ -6010,25 +6077,25 @@
         <v>4.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA31" t="n">
         <v>20.1</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6040,7 +6107,7 @@
         <v>17</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK31" t="n">
         <v>21</v>
@@ -6052,7 +6119,7 @@
         <v>10</v>
       </c>
       <c r="AN31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO31" t="n">
         <v>12</v>
@@ -6070,7 +6137,7 @@
         <v>19</v>
       </c>
       <c r="AT31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU31" t="n">
         <v>27</v>
@@ -6079,7 +6146,7 @@
         <v>9</v>
       </c>
       <c r="AW31" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX31" t="n">
         <v>15</v>
@@ -6088,7 +6155,7 @@
         <v>11</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-11-2007-08</t>
+          <t>2008-02-11</t>
         </is>
       </c>
     </row>
